--- a/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Tower_Hamlets/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Tower_Hamlets.xlsx
+++ b/biology/Botanique/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Tower_Hamlets/Parcs_et_espaces_verts_dans_le_borough_londonien_de_Tower_Hamlets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le borough londonien de Tower Hamlets, bien qu’il soit proche du centre de Londres et conserve peut-être l’idée qu’il s’agit de la zone des docklands, compte plus de 100 zones de parcs et d’espaces verts dans ses limites. Celles-ci vont de l'immense (Victoria Park) aux petits jardins et places. À l'instar de tous les borough londonien, ces espaces verts constituent des "poumons" pour les loisirs des habitants.
 </t>
@@ -511,20 +523,22 @@
           <t>Principaux parcs et espaces verts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principaux parcs de Tower Hamlets sont:
-Victoria Park: 86,18 hectares (213,0 acres)[1], créé en 1884
-Mile End Park: 32 hectares (79 acres)[2], (s'étend de Limehouse à Victoria Park le long du Regent's Canal; stade international d' athlétisme
-Mudchute Park: 13 hectares[3], qui comprend la plus grande ferme urbaine d'Europe
+Victoria Park: 86,18 hectares (213,0 acres), créé en 1884
+Mile End Park: 32 hectares (79 acres), (s'étend de Limehouse à Victoria Park le long du Regent's Canal; stade international d' athlétisme
+Mudchute Park: 13 hectares, qui comprend la plus grande ferme urbaine d'Europe
 l'Olympic Park est en partie dans le borough
 Les plus petits parcs du borough comprennent:
 Altab Ali Park, Whitechapel
 Allen Gardens à Shoreditch
 St Mary's Park à Aldgate
 Bartlett Park à Poplar
-Island Gardens: 1,12 hectare (2,8 acres)[4].  Thames Riverside Park
-King Edward Memorial Park: 3.3 hectares (8.2 acres)[5] à Shadwell
+Island Gardens: 1,12 hectare (2,8 acres).  Thames Riverside Park
+King Edward Memorial Park: 3.3 hectares (8.2 acres) à Shadwell
 Grove Hall Park à Bow
 St George's Gardens autour de l'église St George in the East de Nicholas Hawksmoor
 Tower Hamlets Cemetery Park à Bow et réserve naturelle locale de la promenade Ackroyd à Bow Common</t>
@@ -555,7 +569,9 @@
           <t>Eau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tower Hamlets est un borough, au bord d'une rivière et l'un des plus grands espaces en plein air. Un sentier balisé en bordure de rivière existe depuis Tower Bridge, à l’ouest, autour de l'Isle of Dogs, et laisse le borough à la croisée de la rivière Lee. Bien que les procédures de planification aient tenté d'ouvrir et de protéger l'accès à la rivière, les promoteurs privés ont souvent verrouillé les portes et empêché l'accès à des zones qui devraient être publiques. Il existe par ailleurs des escaliers publics permettant d'accéder à l'estran. 
 La rivière Lea constitue la limite Est du borough. Le chemin de halage est adapté à la marche et aux cyclistes. Il est facilement accessible depuis Three Mills (près de Bow) et donne accès aux Hackney Marshes et au Lee Valley Park.
@@ -589,7 +605,9 @@
           <t>Fermes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mudchute Farm
 Stepney City Farm (Ancienne ferme Stepping Stones, créée en 1979)</t>
